--- a/lab-1/data/pim_nodes.xlsx
+++ b/lab-1/data/pim_nodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\network-analysis\lab-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CC07726-FE4E-4A6C-9C7F-B67142FDED76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E734BC6E-9497-4C2A-96D7-53EF0C16753F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{8F43F468-BD49-47AE-A792-D63BA8EE905B}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,73 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
-  <si>
-    <t>Barbara Johnson</t>
-  </si>
-  <si>
-    <t>Keri L. Rodgers</t>
-  </si>
-  <si>
-    <t>Deborah Dunn</t>
-  </si>
-  <si>
-    <t>JD Weagley</t>
-  </si>
-  <si>
-    <t>Gregory Welch</t>
-  </si>
-  <si>
-    <t>Jenna J Engelhardt</t>
-  </si>
-  <si>
-    <t>Jennifer Schilling</t>
-  </si>
-  <si>
-    <t>Aimee Rigsby</t>
-  </si>
-  <si>
-    <t>Melissa DeWeese</t>
-  </si>
-  <si>
-    <t>Sean Prato</t>
-  </si>
-  <si>
-    <t>Frank Niemiec</t>
-  </si>
-  <si>
-    <t>Amy Davison</t>
-  </si>
-  <si>
-    <t>Jerry A Butler</t>
-  </si>
-  <si>
-    <t>Debra Williams-Robbins</t>
-  </si>
-  <si>
-    <t>Dylan Harrington</t>
-  </si>
-  <si>
-    <t>Jennifer Irby</t>
-  </si>
-  <si>
-    <t>Tennille Merkle</t>
-  </si>
-  <si>
-    <t>Corey Knight</t>
-  </si>
-  <si>
-    <t>Scott Purcell</t>
-  </si>
-  <si>
-    <t>Chantel Sullivan</t>
-  </si>
-  <si>
-    <t>Erica Ashcraft</t>
-  </si>
-  <si>
-    <t>Soha</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="12">
   <si>
     <t>role</t>
   </si>
@@ -115,13 +52,19 @@
     <t>How many online courses have you previously taken in which the /  instructor used asynchronous onli...</t>
   </si>
   <si>
-    <t>#courses</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>gender</t>
+    <t>male</t>
+  </si>
+  <si>
+    <t>interaction</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
   </si>
 </sst>
 </file>
@@ -157,8 +100,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,403 +420,399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FC3E5E-8923-4105-913C-7903C675779D}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C27">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -889,13 +832,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
